--- a/docs/PTA2_DDC_30/PTA2_DDC_30_24.07.24_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2135 +505,2538 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731436728.0344348</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731436730.010945</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731436728.0344348.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731436730.010945.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.71</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2800000000000296</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731436733.7566588</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731436733.7566588.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731436733.7566588.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>296.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731436734.541013</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731436737.3929946</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731436734.541013.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731436737.3929946.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>136.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2999999999999829</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731436739.04696</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731436740.0474749</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731436739.04696.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731436740.0474749.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.51</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731436741.5417922</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731436741.5417922.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731436741.5417922.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>137.08</v>
       </c>
-      <c r="J7" t="n">
-        <v>137.08</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3200000000000216</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731436742.1463661</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731436742.2460985</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436742.1463661.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436742.2460985.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6971</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731436745.5566597</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731436746.5475817</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436745.5566597.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436746.5475817.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6955</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6971</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731436748.0456517</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731436748.8353388</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436748.0456517.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436748.8353388.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6949.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6961</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731436748.954203</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731436749.43175</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436748.954203.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731436749.43175.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6980</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6960</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731436749.7072995</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731436754.9546523</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731436749.7072995.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731436754.9546523.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>533.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>536.25</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-3.049999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731436755.2935457</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731436755.8660307</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731436755.2935457.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731436755.8660307.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>535.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>536.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.149999999999977</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731436756.8763812</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731436756.8763812.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731436756.8763812.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>537.05</v>
       </c>
-      <c r="J14" t="n">
-        <v>537.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>537</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731436757.5832937</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731436760.388674</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731436757.5832937.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731436760.388674.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1098.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>4.800000000000182</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731436763.55041</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731436763.55041.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731436763.55041.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J16" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731436767.2846556</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731436769.9593182</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731436767.2846556.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731436769.9593182.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>129.48</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>129.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1799999999999784</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731436770.414869</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731436773.7991378</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731436770.414869.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731436773.7991378.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.74</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>131.12</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.379999999999995</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731436778.477493</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731436782.2028322</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731436778.477493.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731436782.2028322.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>169.22</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>172.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-3.180000000000007</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731436782.539427</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731436782.539427.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731436782.539427.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>171.64</v>
       </c>
-      <c r="J20" t="n">
-        <v>171.64</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731436786.8906076</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731436789.7351744</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731436786.8906076.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731436789.7351744.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>53.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>53.66</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.259999999999998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731436789.8332875</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731436789.8332875.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731436789.8332875.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>53.605</v>
       </c>
-      <c r="J22" t="n">
-        <v>53.605</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731436795.224048</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731436796.0221205</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731436795.224048.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731436796.0221205.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1465</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731436798.7404346</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731436798.7404346.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731436798.7404346.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1468</v>
       </c>
-      <c r="J24" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731436800.6905546</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731436801.9508574</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731436800.6905546.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731436801.9508574.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>63.84</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731436804.5827663</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731436807.2513213</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731436804.5827663.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731436807.2513213.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>64.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>63.91</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2900000000000063</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731436807.2662823</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731436807.2662823.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731436807.2662823.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>63.91</v>
       </c>
-      <c r="J27" t="n">
-        <v>63.91</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.04000000000000625</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731436811.1222782</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731436811.241958</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731436811.1222782.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731436811.241958.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>59.12</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>59.23</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731436811.4692779</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731436813.2397933</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SELG1731436811.4692779.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SELG1731436813.2397933.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>59.03</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>59.05</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731436813.775126</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731436815.0677667</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SELG1731436813.775126.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SELG1731436815.0677667.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>59.25</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>59.21</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731436818.5100927</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731436818.8710296</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731436818.5100927.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731436818.8710296.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>145.74</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>145.82</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731436819.6593757</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731436820.6996808</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731436819.6593757.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731436820.6996808.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>146.14</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>145.7</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731436821.8839593</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731436822.7596698</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731436821.8839593.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731436822.7596698.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>145.36</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>145.86</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731436823.7267418</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731436824.1737943</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731436823.7267418.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731436824.1737943.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>91.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>90.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.299999999999997</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731436826.548338</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731436829.2314742</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731436826.548338.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731436829.2314742.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>89.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.3999999999999915</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731436833.577802</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731436835.0795398</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731436833.577802.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731436835.0795398.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>363.1</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>361.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731436837.802314</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731436839.7813272</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731436837.802314.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731436839.7813272.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>363.7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>369.52</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-5.819999999999993</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731436840.8277397</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731436844.405995</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/FEES1731436840.8277397.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/FEES1731436844.405995.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.0007999999999999952</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731436845.3350046</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731436847.6946526</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731436845.3350046.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731436847.6946526.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.10024</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.10062</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0003800000000000053</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731436848.4960206</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731436851.8376024</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731436848.4960206.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731436851.8376024.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>3115.85</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.300000000000182</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731436853.2798579</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731436856.8313136</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731436853.2798579.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731436856.8313136.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>3124.55</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>3130</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-5.449999999999818</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731436860.2318933</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731436863.7210195</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731436860.2318933.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731436863.7210195.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>38.095</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>37.945</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.1499999999999986</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731436866.1373515</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731436866.2639873</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436866.1373515.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436866.2639873.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>664.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>662.6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731436866.9646301</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731436867.0642211</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436866.9646301.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436867.0642211.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>664.9</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>663.1</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731436868.3004196</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731436868.8146312</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436868.3004196.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436868.8146312.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>662.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>663.9</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731436869.5718317</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731436870.9241536</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436869.5718317.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/TATN1731436870.9241536.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>665.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>664.1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +3050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2661,6 +3079,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2677,6 +3105,12 @@
       <c r="D2" t="n">
         <v>1.674999999999983</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2693,6 +3127,12 @@
       <c r="D3" t="n">
         <v>13.5</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2709,6 +3149,12 @@
       <c r="D4" t="n">
         <v>0.3399999999999939</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2725,6 +3171,12 @@
       <c r="D5" t="n">
         <v>0.05666666666666487</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2733,13 +3185,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1599999999999682</v>
+        <v>0.1600000000000534</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05333333333332272</v>
+        <v>0.05333333333335114</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -2749,13 +3207,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.899999999999977</v>
+        <v>-1.850000000000023</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6333333333333258</v>
+        <v>-0.6166666666666742</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3500000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
@@ -2765,13 +3229,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.519999999999996</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.173333333333332</v>
+        <v>0.1866666666666674</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
@@ -2789,6 +3259,12 @@
       <c r="D9" t="n">
         <v>0.4500000000000028</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.9700000000000002</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2797,13 +3273,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.800000000000182</v>
+        <v>-5.399999999999864</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2.400000000000091</v>
+        <v>-2.699999999999932</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4899999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="11">
@@ -2813,13 +3295,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2800000000000296</v>
+        <v>-0.1199999999999477</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1400000000000148</v>
+        <v>-0.05999999999997385</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.04999999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12">
@@ -2837,6 +3325,12 @@
       <c r="D12" t="n">
         <v>-2.074999999999818</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2845,13 +3339,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.180000000000007</v>
+        <v>-3.079999999999984</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.590000000000003</v>
+        <v>-1.539999999999992</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="14">
@@ -2861,13 +3361,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.259999999999998</v>
+        <v>-0.3299999999999983</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.129999999999999</v>
+        <v>-0.1649999999999991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="15">
@@ -2885,6 +3391,12 @@
       <c r="D15" t="n">
         <v>-0.6000000000000085</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2901,6 +3413,12 @@
       <c r="D16" t="n">
         <v>-0.0002099999999999949</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2909,13 +3427,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.799999999999955</v>
+        <v>-7</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.899999999999977</v>
+        <v>-3.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="18">
@@ -2933,6 +3457,12 @@
       <c r="D18" t="n">
         <v>-2.159999999999997</v>
       </c>
+      <c r="E18" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2949,6 +3479,12 @@
       <c r="D19" t="n">
         <v>-0.1499999999999986</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2963,6 +3499,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
